--- a/frontend/src/data/products.xlsx
+++ b/frontend/src/data/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc8a21b1ba9f6fb/Desktop/Drop da Mari/Drop da Mari - Emergent React/Drop da Mari/frontend/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conta Teste\OneDrive\Desktop\Projetos Dev\Drop da Mari\Drop da Mari\frontend\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="11_B08ABFDBB4B9E9D8F7F21EF40234A1444B4E3C9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34745EFF-1DBE-46D0-B536-02425C0078F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67884F10-DBAF-4BB3-9D75-762B8521F0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="198">
   <si>
     <t>id</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Pré-treino True Energyzer</t>
   </si>
   <si>
-    <t>Boné Esportivo 5 Panel</t>
-  </si>
-  <si>
-    <t>Cinta Porta Numeral e Gel</t>
-  </si>
-  <si>
     <t>Leve, limpo, natural e delicioso!</t>
   </si>
   <si>
@@ -605,6 +599,21 @@
   </si>
   <si>
     <t>Sofisticação com conforto ao seu treino.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dupz0ffvs/image/upload/v1759169761/Gel_de_Limpeza_Facial_All_Clean_pw2t0l.webp</t>
+  </si>
+  <si>
+    <t>https://kesserstore.com.br/products/gel-de-limpeza-facial-all-clean</t>
+  </si>
+  <si>
+    <t>Gel de limpeza facial Kesser All Clean</t>
+  </si>
+  <si>
+    <t>Boné Esportivo Yopp 5 Panel</t>
+  </si>
+  <si>
+    <t>Cinta Porta Numeral e Gel Yopp</t>
   </si>
 </sst>
 </file>
@@ -694,16 +703,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -748,13 +757,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}" name="Tabela1" displayName="Tabela1" ref="A1:H47" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:H47" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}" name="Tabela1" displayName="Tabela1" ref="A1:H48" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:H48" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:H38">
     <sortCondition ref="H1:H38"/>
   </sortState>
@@ -1059,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,278 +1110,278 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
         <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1384,160 +1389,160 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="C20" t="s">
-        <v>131</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1545,22 +1550,22 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1568,22 +1573,22 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1591,574 +1596,591 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
         <v>22</v>
       </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
         <v>22</v>
       </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
         <v>22</v>
       </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" t="s">
         <v>148</v>
-      </c>
-      <c r="H46" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2239,10 +2261,11 @@
     <hyperlink ref="G44" r:id="rId74" xr:uid="{ED0A3F82-A547-4243-B8DD-33BCB25FE521}"/>
     <hyperlink ref="G45" r:id="rId75" xr:uid="{10B6A68A-2347-4926-B04F-8A82D4563FEF}"/>
     <hyperlink ref="G46" r:id="rId76" xr:uid="{38F23661-6621-461A-8FBC-3B0D8B1EC316}"/>
+    <hyperlink ref="D48" r:id="rId77" xr:uid="{243D949C-60EE-4D16-B3A0-D0934B7A271D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId77"/>
+    <tablePart r:id="rId78"/>
   </tableParts>
 </worksheet>
 </file>
--- a/frontend/src/data/products.xlsx
+++ b/frontend/src/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conta Teste\OneDrive\Desktop\Projetos Dev\Drop da Mari\Drop da Mari\frontend\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67884F10-DBAF-4BB3-9D75-762B8521F0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC909B9B-4773-461A-B2B0-D925111210A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>Cinta Porta Numeral e Gel Yopp</t>
+  </si>
+  <si>
+    <t>15% OFF</t>
   </si>
 </sst>
 </file>
@@ -703,16 +706,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -758,10 +761,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}" name="Tabela1" displayName="Tabela1" ref="A1:H48" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:H48" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:H38">
-    <sortCondition ref="H1:H38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}" name="Tabela1" displayName="Tabela1" ref="A1:H48" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:H48" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Roupas"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
+    <sortCondition ref="H1:H48"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{65D4BFDC-0975-4F92-99BB-F29971B1649C}" name="id"/>
@@ -1066,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>77</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>80</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>78</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>79</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>196</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -1246,7 +1255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>83</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>197</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>85</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>37</v>
       </c>
@@ -1453,7 +1462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>127</v>
       </c>
@@ -1545,7 +1554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1568,231 +1577,225 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
         <v>184</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H31" t="s">
         <v>148</v>
@@ -1800,22 +1803,22 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H32" t="s">
         <v>148</v>
@@ -1823,22 +1826,22 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F33" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H33" t="s">
         <v>148</v>
@@ -1846,22 +1849,22 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H34" t="s">
         <v>148</v>
@@ -1869,22 +1872,22 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H35" t="s">
         <v>148</v>
@@ -1892,22 +1895,22 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H36" t="s">
         <v>148</v>
@@ -1915,22 +1918,22 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
         <v>148</v>
@@ -1938,22 +1941,22 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F38" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H38" t="s">
         <v>148</v>
@@ -1961,226 +1964,232 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H39" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="H41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>195</v>
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>193</v>
+        <v>164</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2224,44 +2233,44 @@
     <hyperlink ref="G18" r:id="rId37" xr:uid="{5B7B4E20-E7F0-4031-B7A9-7D7A7947B87D}"/>
     <hyperlink ref="G19" r:id="rId38" xr:uid="{BB103CD4-CF58-4EB2-B1A7-D82FD4EF764D}"/>
     <hyperlink ref="G20" r:id="rId39" xr:uid="{3E0A0996-590B-4A99-B7D6-B8CA069559B8}"/>
-    <hyperlink ref="D28" r:id="rId40" xr:uid="{FDA9802D-23D9-47E7-A38B-A0CE9CAC41B6}"/>
-    <hyperlink ref="D29" r:id="rId41" xr:uid="{1FCB3FE0-8878-460C-B1D4-75EF290F214B}"/>
-    <hyperlink ref="D24" r:id="rId42" xr:uid="{CEF4B780-FB0B-4B81-84B6-4B3B7B297596}"/>
-    <hyperlink ref="D27" r:id="rId43" xr:uid="{3E495126-B48B-4664-9177-FD9766C90807}"/>
-    <hyperlink ref="D25" r:id="rId44" xr:uid="{8C2ACF98-E2AF-4B30-826F-01013FC35C9C}"/>
-    <hyperlink ref="D26" r:id="rId45" xr:uid="{590B0971-9AF4-47FA-B2BF-B4169AD18E6A}"/>
-    <hyperlink ref="D22" r:id="rId46" xr:uid="{54761169-7B92-48D9-A779-FE4C5B4597AC}"/>
-    <hyperlink ref="D23" r:id="rId47" xr:uid="{71DEE8AD-41C0-45D5-BBA5-7AA69E81F0CD}"/>
-    <hyperlink ref="D30" r:id="rId48" xr:uid="{F99EF480-6A58-4829-A490-7456A6E64882}"/>
-    <hyperlink ref="D31" r:id="rId49" xr:uid="{565CCD9F-D686-4D01-BA6C-D6F841429719}"/>
-    <hyperlink ref="D32" r:id="rId50" xr:uid="{1DD3D530-71B9-4997-8F0F-3EB04641443C}"/>
-    <hyperlink ref="D33" r:id="rId51" xr:uid="{B9589212-71CA-4F0D-9888-ACBF2304B96E}"/>
-    <hyperlink ref="D34" r:id="rId52" xr:uid="{F009EE15-80D7-470E-90DF-81052ABEAE0C}"/>
-    <hyperlink ref="D35" r:id="rId53" xr:uid="{3800C1CA-F9E6-457E-9448-62C79B17CD49}"/>
-    <hyperlink ref="D36" r:id="rId54" xr:uid="{4AD78AA2-6056-4BF0-8554-1C9C68C51C38}"/>
-    <hyperlink ref="D37" r:id="rId55" xr:uid="{F1406F09-F75E-43AE-8161-045FD01D6E8E}"/>
-    <hyperlink ref="D38" r:id="rId56" xr:uid="{245C5C9C-7712-416F-9161-D3A3F924458A}"/>
-    <hyperlink ref="D39" r:id="rId57" xr:uid="{EA0873BD-2B24-4D87-A3F3-C9F569E05373}"/>
-    <hyperlink ref="D40" r:id="rId58" xr:uid="{8865B77A-09E7-4E7E-9704-0D3CE2D5614B}"/>
-    <hyperlink ref="D41" r:id="rId59" xr:uid="{48DA8107-61DE-452E-8CE4-FF270B520CCB}"/>
-    <hyperlink ref="D43" r:id="rId60" xr:uid="{EF65CC1E-0D22-4577-8879-8221123238F0}"/>
-    <hyperlink ref="D42" r:id="rId61" xr:uid="{EC3AA437-B71E-416E-AEE2-1328512630A8}"/>
-    <hyperlink ref="D44" r:id="rId62" xr:uid="{90095565-10C5-4F76-AC30-119DA54162DC}"/>
-    <hyperlink ref="D45" r:id="rId63" xr:uid="{BFD8C393-24D2-4B41-9183-9B92E739C6DC}"/>
-    <hyperlink ref="D46" r:id="rId64" xr:uid="{3D71FB43-7324-401E-99E1-CFD270BD55A5}"/>
-    <hyperlink ref="D47" r:id="rId65" xr:uid="{BA551383-E284-46BD-9DDE-A70352E3B2B6}"/>
-    <hyperlink ref="G31" r:id="rId66" xr:uid="{134D5727-5BA1-4EB7-AA97-FA6359051821}"/>
-    <hyperlink ref="G33" r:id="rId67" xr:uid="{A85BCA4C-4331-4052-8833-860FB21E882C}"/>
-    <hyperlink ref="G36" r:id="rId68" xr:uid="{FAA24351-CA1B-4BFA-A058-F985909D947D}"/>
-    <hyperlink ref="G38" r:id="rId69" xr:uid="{6EC8A4D8-7B12-4CC3-9C4F-23B0C063A96B}"/>
-    <hyperlink ref="G39" r:id="rId70" xr:uid="{521AD338-D54D-41B2-9862-40281CAF799D}"/>
-    <hyperlink ref="G40" r:id="rId71" xr:uid="{61255368-F451-42C9-9A00-52868BBBE203}"/>
-    <hyperlink ref="G42" r:id="rId72" xr:uid="{108C617D-3F59-422F-BB96-6C80DAA583EB}"/>
-    <hyperlink ref="G43" r:id="rId73" xr:uid="{F775627A-7B8A-4442-AF64-C15C0C541327}"/>
-    <hyperlink ref="G44" r:id="rId74" xr:uid="{ED0A3F82-A547-4243-B8DD-33BCB25FE521}"/>
-    <hyperlink ref="G45" r:id="rId75" xr:uid="{10B6A68A-2347-4926-B04F-8A82D4563FEF}"/>
-    <hyperlink ref="G46" r:id="rId76" xr:uid="{38F23661-6621-461A-8FBC-3B0D8B1EC316}"/>
-    <hyperlink ref="D48" r:id="rId77" xr:uid="{243D949C-60EE-4D16-B3A0-D0934B7A271D}"/>
+    <hyperlink ref="D46" r:id="rId40" xr:uid="{FDA9802D-23D9-47E7-A38B-A0CE9CAC41B6}"/>
+    <hyperlink ref="D47" r:id="rId41" xr:uid="{1FCB3FE0-8878-460C-B1D4-75EF290F214B}"/>
+    <hyperlink ref="D42" r:id="rId42" xr:uid="{CEF4B780-FB0B-4B81-84B6-4B3B7B297596}"/>
+    <hyperlink ref="D45" r:id="rId43" xr:uid="{3E495126-B48B-4664-9177-FD9766C90807}"/>
+    <hyperlink ref="D43" r:id="rId44" xr:uid="{8C2ACF98-E2AF-4B30-826F-01013FC35C9C}"/>
+    <hyperlink ref="D44" r:id="rId45" xr:uid="{590B0971-9AF4-47FA-B2BF-B4169AD18E6A}"/>
+    <hyperlink ref="D40" r:id="rId46" xr:uid="{54761169-7B92-48D9-A779-FE4C5B4597AC}"/>
+    <hyperlink ref="D41" r:id="rId47" xr:uid="{71DEE8AD-41C0-45D5-BBA5-7AA69E81F0CD}"/>
+    <hyperlink ref="D48" r:id="rId48" xr:uid="{F99EF480-6A58-4829-A490-7456A6E64882}"/>
+    <hyperlink ref="D23" r:id="rId49" xr:uid="{565CCD9F-D686-4D01-BA6C-D6F841429719}"/>
+    <hyperlink ref="D24" r:id="rId50" xr:uid="{1DD3D530-71B9-4997-8F0F-3EB04641443C}"/>
+    <hyperlink ref="D25" r:id="rId51" xr:uid="{B9589212-71CA-4F0D-9888-ACBF2304B96E}"/>
+    <hyperlink ref="D26" r:id="rId52" xr:uid="{F009EE15-80D7-470E-90DF-81052ABEAE0C}"/>
+    <hyperlink ref="D27" r:id="rId53" xr:uid="{3800C1CA-F9E6-457E-9448-62C79B17CD49}"/>
+    <hyperlink ref="D28" r:id="rId54" xr:uid="{4AD78AA2-6056-4BF0-8554-1C9C68C51C38}"/>
+    <hyperlink ref="D29" r:id="rId55" xr:uid="{F1406F09-F75E-43AE-8161-045FD01D6E8E}"/>
+    <hyperlink ref="D30" r:id="rId56" xr:uid="{245C5C9C-7712-416F-9161-D3A3F924458A}"/>
+    <hyperlink ref="D31" r:id="rId57" xr:uid="{EA0873BD-2B24-4D87-A3F3-C9F569E05373}"/>
+    <hyperlink ref="D32" r:id="rId58" xr:uid="{8865B77A-09E7-4E7E-9704-0D3CE2D5614B}"/>
+    <hyperlink ref="D33" r:id="rId59" xr:uid="{48DA8107-61DE-452E-8CE4-FF270B520CCB}"/>
+    <hyperlink ref="D35" r:id="rId60" xr:uid="{EF65CC1E-0D22-4577-8879-8221123238F0}"/>
+    <hyperlink ref="D34" r:id="rId61" xr:uid="{EC3AA437-B71E-416E-AEE2-1328512630A8}"/>
+    <hyperlink ref="D36" r:id="rId62" xr:uid="{90095565-10C5-4F76-AC30-119DA54162DC}"/>
+    <hyperlink ref="D37" r:id="rId63" xr:uid="{BFD8C393-24D2-4B41-9183-9B92E739C6DC}"/>
+    <hyperlink ref="D38" r:id="rId64" xr:uid="{3D71FB43-7324-401E-99E1-CFD270BD55A5}"/>
+    <hyperlink ref="D39" r:id="rId65" xr:uid="{BA551383-E284-46BD-9DDE-A70352E3B2B6}"/>
+    <hyperlink ref="G23" r:id="rId66" xr:uid="{134D5727-5BA1-4EB7-AA97-FA6359051821}"/>
+    <hyperlink ref="G25" r:id="rId67" xr:uid="{A85BCA4C-4331-4052-8833-860FB21E882C}"/>
+    <hyperlink ref="G28" r:id="rId68" xr:uid="{FAA24351-CA1B-4BFA-A058-F985909D947D}"/>
+    <hyperlink ref="G30" r:id="rId69" xr:uid="{6EC8A4D8-7B12-4CC3-9C4F-23B0C063A96B}"/>
+    <hyperlink ref="G31" r:id="rId70" xr:uid="{521AD338-D54D-41B2-9862-40281CAF799D}"/>
+    <hyperlink ref="G32" r:id="rId71" xr:uid="{61255368-F451-42C9-9A00-52868BBBE203}"/>
+    <hyperlink ref="G34" r:id="rId72" xr:uid="{108C617D-3F59-422F-BB96-6C80DAA583EB}"/>
+    <hyperlink ref="G35" r:id="rId73" xr:uid="{F775627A-7B8A-4442-AF64-C15C0C541327}"/>
+    <hyperlink ref="G36" r:id="rId74" xr:uid="{ED0A3F82-A547-4243-B8DD-33BCB25FE521}"/>
+    <hyperlink ref="G37" r:id="rId75" xr:uid="{10B6A68A-2347-4926-B04F-8A82D4563FEF}"/>
+    <hyperlink ref="G38" r:id="rId76" xr:uid="{38F23661-6621-461A-8FBC-3B0D8B1EC316}"/>
+    <hyperlink ref="D22" r:id="rId77" xr:uid="{243D949C-60EE-4D16-B3A0-D0934B7A271D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/frontend/src/data/products.xlsx
+++ b/frontend/src/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conta Teste\OneDrive\Desktop\Projetos Dev\Drop da Mari\Drop da Mari\frontend\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC909B9B-4773-461A-B2B0-D925111210A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B84A11-AA7A-4704-9975-619BA78EDE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="200">
   <si>
     <t>id</t>
   </si>
@@ -617,13 +617,16 @@
   </si>
   <si>
     <t>15% OFF</t>
+  </si>
+  <si>
+    <t>MARI15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +648,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -684,12 +695,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1075,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1620,7 @@
         <v>198</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>131</v>
@@ -1631,7 +1643,7 @@
         <v>198</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>132</v>
@@ -1654,7 +1666,7 @@
         <v>198</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>133</v>
@@ -1677,7 +1689,7 @@
         <v>198</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>134</v>
@@ -1700,7 +1712,7 @@
         <v>198</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>135</v>
@@ -1723,7 +1735,7 @@
         <v>198</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>136</v>
@@ -1746,7 +1758,7 @@
         <v>198</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>137</v>
@@ -1769,7 +1781,7 @@
         <v>198</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>138</v>
@@ -1792,7 +1804,7 @@
         <v>198</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>139</v>
@@ -1815,7 +1827,7 @@
         <v>198</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>140</v>
@@ -1837,8 +1849,8 @@
       <c r="E33" t="s">
         <v>198</v>
       </c>
-      <c r="F33" t="s">
-        <v>23</v>
+      <c r="F33" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>141</v>
@@ -1861,7 +1873,7 @@
         <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>142</v>
@@ -1884,7 +1896,7 @@
         <v>198</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>143</v>
@@ -1907,7 +1919,7 @@
         <v>198</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>144</v>
@@ -1930,7 +1942,7 @@
         <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>145</v>
@@ -1953,7 +1965,7 @@
         <v>198</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>146</v>
@@ -1976,7 +1988,7 @@
         <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>147</v>

--- a/frontend/src/data/products.xlsx
+++ b/frontend/src/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conta Teste\OneDrive\Desktop\Projetos Dev\Drop da Mari\Drop da Mari\frontend\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B84A11-AA7A-4704-9975-619BA78EDE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73099A5-0013-47B7-9ACE-266D8B8CF5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="198">
   <si>
     <t>id</t>
   </si>
@@ -614,19 +614,13 @@
   </si>
   <si>
     <t>Cinta Porta Numeral e Gel Yopp</t>
-  </si>
-  <si>
-    <t>15% OFF</t>
-  </si>
-  <si>
-    <t>MARI15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,14 +642,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -695,13 +681,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -773,14 +758,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}" name="Tabela1" displayName="Tabela1" ref="A1:H48" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:H48" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Roupas"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}" name="Tabela1" displayName="Tabela1" ref="A1:H53" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:H53" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
     <sortCondition ref="H1:H48"/>
   </sortState>
@@ -1085,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>77</v>
       </c>
@@ -1152,7 +1131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>80</v>
       </c>
@@ -1175,7 +1154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>78</v>
       </c>
@@ -1198,7 +1177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>79</v>
       </c>
@@ -1221,7 +1200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>196</v>
       </c>
@@ -1244,7 +1223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -1267,7 +1246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -1290,7 +1269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>83</v>
       </c>
@@ -1313,7 +1292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -1336,7 +1315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>197</v>
       </c>
@@ -1359,7 +1338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -1382,7 +1361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>85</v>
       </c>
@@ -1405,7 +1384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1407,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1451,7 +1430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>37</v>
       </c>
@@ -1474,7 +1453,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -1497,7 +1476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1520,7 +1499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1543,7 +1522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>127</v>
       </c>
@@ -1566,7 +1545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1568,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>195</v>
       </c>
@@ -1617,10 +1596,10 @@
         <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>131</v>
@@ -1640,10 +1619,10 @@
         <v>166</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>132</v>
@@ -1663,10 +1642,10 @@
         <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>133</v>
@@ -1686,10 +1665,10 @@
         <v>169</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>134</v>
@@ -1709,10 +1688,10 @@
         <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>135</v>
@@ -1732,10 +1711,10 @@
         <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>136</v>
@@ -1755,10 +1734,10 @@
         <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>137</v>
@@ -1778,10 +1757,10 @@
         <v>174</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>138</v>
@@ -1801,10 +1780,10 @@
         <v>175</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>139</v>
@@ -1824,10 +1803,10 @@
         <v>176</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>140</v>
@@ -1847,10 +1826,10 @@
         <v>177</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>199</v>
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>141</v>
@@ -1870,10 +1849,10 @@
         <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>142</v>
@@ -1893,10 +1872,10 @@
         <v>178</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>143</v>
@@ -1916,10 +1895,10 @@
         <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>144</v>
@@ -1939,10 +1918,10 @@
         <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>145</v>
@@ -1962,10 +1941,10 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>146</v>
@@ -1985,10 +1964,10 @@
         <v>183</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>147</v>
@@ -1997,7 +1976,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>8</v>
       </c>
@@ -2020,7 +1999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>11</v>
       </c>
@@ -2043,7 +2022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>58</v>
       </c>
@@ -2066,7 +2045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>98</v>
       </c>
@@ -2089,7 +2068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>59</v>
       </c>
@@ -2112,7 +2091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>99</v>
       </c>
@@ -2135,7 +2114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>66</v>
       </c>
@@ -2158,7 +2137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>100</v>
       </c>
@@ -2181,7 +2160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>96</v>
       </c>
@@ -2203,6 +2182,26 @@
       <c r="H48" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/frontend/src/data/products.xlsx
+++ b/frontend/src/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conta Teste\OneDrive\Desktop\Projetos Dev\Drop da Mari\Drop da Mari\frontend\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73099A5-0013-47B7-9ACE-266D8B8CF5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329AD8C0-BB8E-4D4F-BAA0-81B695D73E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -614,6 +614,87 @@
   </si>
   <si>
     <t>Cinta Porta Numeral e Gel Yopp</t>
+  </si>
+  <si>
+    <t>MARIANA10</t>
+  </si>
+  <si>
+    <t>https://www.pipizito.com.br/collections/todos-produtos</t>
+  </si>
+  <si>
+    <t>Pipizito Funil Urinário Descartável</t>
+  </si>
+  <si>
+    <t>Para evitar contato com banheiros sujos.</t>
+  </si>
+  <si>
+    <t>Limpeza eficaz e delicada do rosto.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dupz0ffvs/image/upload/v1759321339/pipizito_grcs7r.webp</t>
+  </si>
+  <si>
+    <t>Parceiros</t>
+  </si>
+  <si>
+    <t>https://wa.me/5527996367339</t>
+  </si>
+  <si>
+    <t>https://wa.me/5527999097151</t>
+  </si>
+  <si>
+    <t>Thiago Ferraz - Fisioterapeuta</t>
+  </si>
+  <si>
+    <t>Kayque Vizzoni - Personal Trainer</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dupz0ffvs/image/upload/v1759324606/kayquepersonal_fcxmmh.jpg</t>
+  </si>
+  <si>
+    <t>Nathalia Schaeffer - Nutricionista</t>
+  </si>
+  <si>
+    <t>Planilhas e acompanhamento online.</t>
+  </si>
+  <si>
+    <t>Consultoria online por app.
+Plano bimestral com desconto exclusivo!</t>
+  </si>
+  <si>
+    <t>Nutrição esportiva.
+Emagrecimeto e saúde feminina.</t>
+  </si>
+  <si>
+    <t>Para prevenção e recuperação de lesões.
+Avaliação e sessão com condições especiais!</t>
+  </si>
+  <si>
+    <t>Karol Coutinho - Fotógrafa</t>
+  </si>
+  <si>
+    <t>Fotografia profissional de esportes.</t>
+  </si>
+  <si>
+    <t>https://wa.me/5521981003551</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dupz0ffvs/image/upload/v1759354024/rodrigodmais_flmwzr.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dupz0ffvs/image/upload/v1759354406/karolfoto_l7kmwf.jpg</t>
+  </si>
+  <si>
+    <t>https://wa.me/5527988426617</t>
+  </si>
+  <si>
+    <t>https://wa.me/5527998886652</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dupz0ffvs/image/upload/v1759356051/IMG_7672_jfbfgj.png</t>
+  </si>
+  <si>
+    <t>Rodrigo João - Treinador de Corrida</t>
   </si>
 </sst>
 </file>
@@ -681,11 +762,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -758,8 +842,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}" name="Tabela1" displayName="Tabela1" ref="A1:H53" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:H53" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}" name="Tabela1" displayName="Tabela1" ref="A1:H54" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:H54" xr:uid="{9423426A-FF74-4080-A8AC-F983F8483237}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
     <sortCondition ref="H1:H48"/>
   </sortState>
@@ -1064,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B49:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,8 +1656,14 @@
       <c r="B22" t="s">
         <v>195</v>
       </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
@@ -2183,25 +2273,111 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="D52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H54" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2250,42 +2426,47 @@
     <hyperlink ref="D45" r:id="rId43" xr:uid="{3E495126-B48B-4664-9177-FD9766C90807}"/>
     <hyperlink ref="D43" r:id="rId44" xr:uid="{8C2ACF98-E2AF-4B30-826F-01013FC35C9C}"/>
     <hyperlink ref="D44" r:id="rId45" xr:uid="{590B0971-9AF4-47FA-B2BF-B4169AD18E6A}"/>
-    <hyperlink ref="D40" r:id="rId46" xr:uid="{54761169-7B92-48D9-A779-FE4C5B4597AC}"/>
-    <hyperlink ref="D41" r:id="rId47" xr:uid="{71DEE8AD-41C0-45D5-BBA5-7AA69E81F0CD}"/>
-    <hyperlink ref="D48" r:id="rId48" xr:uid="{F99EF480-6A58-4829-A490-7456A6E64882}"/>
-    <hyperlink ref="D23" r:id="rId49" xr:uid="{565CCD9F-D686-4D01-BA6C-D6F841429719}"/>
-    <hyperlink ref="D24" r:id="rId50" xr:uid="{1DD3D530-71B9-4997-8F0F-3EB04641443C}"/>
-    <hyperlink ref="D25" r:id="rId51" xr:uid="{B9589212-71CA-4F0D-9888-ACBF2304B96E}"/>
-    <hyperlink ref="D26" r:id="rId52" xr:uid="{F009EE15-80D7-470E-90DF-81052ABEAE0C}"/>
-    <hyperlink ref="D27" r:id="rId53" xr:uid="{3800C1CA-F9E6-457E-9448-62C79B17CD49}"/>
-    <hyperlink ref="D28" r:id="rId54" xr:uid="{4AD78AA2-6056-4BF0-8554-1C9C68C51C38}"/>
-    <hyperlink ref="D29" r:id="rId55" xr:uid="{F1406F09-F75E-43AE-8161-045FD01D6E8E}"/>
-    <hyperlink ref="D30" r:id="rId56" xr:uid="{245C5C9C-7712-416F-9161-D3A3F924458A}"/>
-    <hyperlink ref="D31" r:id="rId57" xr:uid="{EA0873BD-2B24-4D87-A3F3-C9F569E05373}"/>
-    <hyperlink ref="D32" r:id="rId58" xr:uid="{8865B77A-09E7-4E7E-9704-0D3CE2D5614B}"/>
-    <hyperlink ref="D33" r:id="rId59" xr:uid="{48DA8107-61DE-452E-8CE4-FF270B520CCB}"/>
-    <hyperlink ref="D35" r:id="rId60" xr:uid="{EF65CC1E-0D22-4577-8879-8221123238F0}"/>
-    <hyperlink ref="D34" r:id="rId61" xr:uid="{EC3AA437-B71E-416E-AEE2-1328512630A8}"/>
-    <hyperlink ref="D36" r:id="rId62" xr:uid="{90095565-10C5-4F76-AC30-119DA54162DC}"/>
-    <hyperlink ref="D37" r:id="rId63" xr:uid="{BFD8C393-24D2-4B41-9183-9B92E739C6DC}"/>
-    <hyperlink ref="D38" r:id="rId64" xr:uid="{3D71FB43-7324-401E-99E1-CFD270BD55A5}"/>
-    <hyperlink ref="D39" r:id="rId65" xr:uid="{BA551383-E284-46BD-9DDE-A70352E3B2B6}"/>
-    <hyperlink ref="G23" r:id="rId66" xr:uid="{134D5727-5BA1-4EB7-AA97-FA6359051821}"/>
-    <hyperlink ref="G25" r:id="rId67" xr:uid="{A85BCA4C-4331-4052-8833-860FB21E882C}"/>
-    <hyperlink ref="G28" r:id="rId68" xr:uid="{FAA24351-CA1B-4BFA-A058-F985909D947D}"/>
-    <hyperlink ref="G30" r:id="rId69" xr:uid="{6EC8A4D8-7B12-4CC3-9C4F-23B0C063A96B}"/>
-    <hyperlink ref="G31" r:id="rId70" xr:uid="{521AD338-D54D-41B2-9862-40281CAF799D}"/>
-    <hyperlink ref="G32" r:id="rId71" xr:uid="{61255368-F451-42C9-9A00-52868BBBE203}"/>
-    <hyperlink ref="G34" r:id="rId72" xr:uid="{108C617D-3F59-422F-BB96-6C80DAA583EB}"/>
-    <hyperlink ref="G35" r:id="rId73" xr:uid="{F775627A-7B8A-4442-AF64-C15C0C541327}"/>
-    <hyperlink ref="G36" r:id="rId74" xr:uid="{ED0A3F82-A547-4243-B8DD-33BCB25FE521}"/>
-    <hyperlink ref="G37" r:id="rId75" xr:uid="{10B6A68A-2347-4926-B04F-8A82D4563FEF}"/>
-    <hyperlink ref="G38" r:id="rId76" xr:uid="{38F23661-6621-461A-8FBC-3B0D8B1EC316}"/>
-    <hyperlink ref="D22" r:id="rId77" xr:uid="{243D949C-60EE-4D16-B3A0-D0934B7A271D}"/>
+    <hyperlink ref="D41" r:id="rId46" xr:uid="{71DEE8AD-41C0-45D5-BBA5-7AA69E81F0CD}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{F99EF480-6A58-4829-A490-7456A6E64882}"/>
+    <hyperlink ref="D23" r:id="rId48" xr:uid="{565CCD9F-D686-4D01-BA6C-D6F841429719}"/>
+    <hyperlink ref="D24" r:id="rId49" xr:uid="{1DD3D530-71B9-4997-8F0F-3EB04641443C}"/>
+    <hyperlink ref="D25" r:id="rId50" xr:uid="{B9589212-71CA-4F0D-9888-ACBF2304B96E}"/>
+    <hyperlink ref="D26" r:id="rId51" xr:uid="{F009EE15-80D7-470E-90DF-81052ABEAE0C}"/>
+    <hyperlink ref="D27" r:id="rId52" xr:uid="{3800C1CA-F9E6-457E-9448-62C79B17CD49}"/>
+    <hyperlink ref="D28" r:id="rId53" xr:uid="{4AD78AA2-6056-4BF0-8554-1C9C68C51C38}"/>
+    <hyperlink ref="D29" r:id="rId54" xr:uid="{F1406F09-F75E-43AE-8161-045FD01D6E8E}"/>
+    <hyperlink ref="D30" r:id="rId55" xr:uid="{245C5C9C-7712-416F-9161-D3A3F924458A}"/>
+    <hyperlink ref="D31" r:id="rId56" xr:uid="{EA0873BD-2B24-4D87-A3F3-C9F569E05373}"/>
+    <hyperlink ref="D32" r:id="rId57" xr:uid="{8865B77A-09E7-4E7E-9704-0D3CE2D5614B}"/>
+    <hyperlink ref="D33" r:id="rId58" xr:uid="{48DA8107-61DE-452E-8CE4-FF270B520CCB}"/>
+    <hyperlink ref="D35" r:id="rId59" xr:uid="{EF65CC1E-0D22-4577-8879-8221123238F0}"/>
+    <hyperlink ref="D34" r:id="rId60" xr:uid="{EC3AA437-B71E-416E-AEE2-1328512630A8}"/>
+    <hyperlink ref="D36" r:id="rId61" xr:uid="{90095565-10C5-4F76-AC30-119DA54162DC}"/>
+    <hyperlink ref="D37" r:id="rId62" xr:uid="{BFD8C393-24D2-4B41-9183-9B92E739C6DC}"/>
+    <hyperlink ref="D38" r:id="rId63" xr:uid="{3D71FB43-7324-401E-99E1-CFD270BD55A5}"/>
+    <hyperlink ref="D39" r:id="rId64" xr:uid="{BA551383-E284-46BD-9DDE-A70352E3B2B6}"/>
+    <hyperlink ref="G23" r:id="rId65" xr:uid="{134D5727-5BA1-4EB7-AA97-FA6359051821}"/>
+    <hyperlink ref="G25" r:id="rId66" xr:uid="{A85BCA4C-4331-4052-8833-860FB21E882C}"/>
+    <hyperlink ref="G28" r:id="rId67" xr:uid="{FAA24351-CA1B-4BFA-A058-F985909D947D}"/>
+    <hyperlink ref="G30" r:id="rId68" xr:uid="{6EC8A4D8-7B12-4CC3-9C4F-23B0C063A96B}"/>
+    <hyperlink ref="G31" r:id="rId69" xr:uid="{521AD338-D54D-41B2-9862-40281CAF799D}"/>
+    <hyperlink ref="G32" r:id="rId70" xr:uid="{61255368-F451-42C9-9A00-52868BBBE203}"/>
+    <hyperlink ref="G34" r:id="rId71" xr:uid="{108C617D-3F59-422F-BB96-6C80DAA583EB}"/>
+    <hyperlink ref="G35" r:id="rId72" xr:uid="{F775627A-7B8A-4442-AF64-C15C0C541327}"/>
+    <hyperlink ref="G36" r:id="rId73" xr:uid="{ED0A3F82-A547-4243-B8DD-33BCB25FE521}"/>
+    <hyperlink ref="G37" r:id="rId74" xr:uid="{10B6A68A-2347-4926-B04F-8A82D4563FEF}"/>
+    <hyperlink ref="G38" r:id="rId75" xr:uid="{38F23661-6621-461A-8FBC-3B0D8B1EC316}"/>
+    <hyperlink ref="D22" r:id="rId76" xr:uid="{243D949C-60EE-4D16-B3A0-D0934B7A271D}"/>
+    <hyperlink ref="D40" r:id="rId77" xr:uid="{54761169-7B92-48D9-A779-FE4C5B4597AC}"/>
+    <hyperlink ref="D49" r:id="rId78" xr:uid="{B127325D-9C87-45E1-87CF-1D65E06335AB}"/>
+    <hyperlink ref="D50" r:id="rId79" xr:uid="{B74D36B6-3A70-4F18-B8D1-DE80A64EDB34}"/>
+    <hyperlink ref="D51" r:id="rId80" xr:uid="{5A33A8D8-E327-4210-82EC-90D59660788B}"/>
+    <hyperlink ref="D53" r:id="rId81" xr:uid="{DEAA7E39-A689-4740-9CFA-C1AA3AE3EFFE}"/>
+    <hyperlink ref="D54" r:id="rId82" xr:uid="{336CD05E-1323-4A92-8105-E8B8262B5956}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId78"/>
+    <tablePart r:id="rId83"/>
   </tableParts>
 </worksheet>
 </file>
--- a/frontend/src/data/products.xlsx
+++ b/frontend/src/data/products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conta Teste\OneDrive\Desktop\Projetos Dev\Drop da Mari\Drop da Mari\frontend\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329AD8C0-BB8E-4D4F-BAA0-81B695D73E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DA2599-0770-42B2-B5E0-8A332A58DF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="225">
   <si>
     <t>id</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>Rodrigo João - Treinador de Corrida</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dupz0ffvs/image/upload/v1759492205/nathaliaschae-1_nkzzpq.png</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1154,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,7 +2340,9 @@
       <c r="C52" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="G52" s="1" t="s">
         <v>221</v>
       </c>
@@ -2463,10 +2468,11 @@
     <hyperlink ref="D51" r:id="rId80" xr:uid="{5A33A8D8-E327-4210-82EC-90D59660788B}"/>
     <hyperlink ref="D53" r:id="rId81" xr:uid="{DEAA7E39-A689-4740-9CFA-C1AA3AE3EFFE}"/>
     <hyperlink ref="D54" r:id="rId82" xr:uid="{336CD05E-1323-4A92-8105-E8B8262B5956}"/>
+    <hyperlink ref="D52" r:id="rId83" xr:uid="{7655F89E-67F6-4C65-9567-70EFDDFB0265}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId83"/>
+    <tablePart r:id="rId84"/>
   </tableParts>
 </worksheet>
 </file>